--- a/logs/2024/Not the End of the World_ How We Can Be the First Generation to Build a Sustainable Planet - Hannah Ritchie.xlsx
+++ b/logs/2024/Not the End of the World_ How We Can Be the First Generation to Build a Sustainable Planet - Hannah Ritchie.xlsx
@@ -430,7 +430,7 @@
         <v>45455</v>
       </c>
       <c r="B1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45456</v>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45457</v>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45458</v>
       </c>
       <c r="B4" t="n">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45459</v>
       </c>
       <c r="B5" t="n">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45460</v>
       </c>
       <c r="B6" t="n">
-        <v>155</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45461</v>
       </c>
       <c r="B7" t="n">
-        <v>182</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>45462</v>
       </c>
       <c r="B8" t="n">
-        <v>217</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>45463</v>
       </c>
       <c r="B9" t="n">
-        <v>248</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
